--- a/Evaluation/FLStandard/Version1.xlsx
+++ b/Evaluation/FLStandard/Version1.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,12 +741,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -761,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,12 +962,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -988,7 +976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,12 +1183,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -1215,7 +1197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,12 +1404,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -1442,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,12 +1625,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -1669,7 +1639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1876,12 +1846,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -1896,7 +1860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,12 +2067,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -2123,7 +2081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,12 +2288,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -2350,7 +2302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2557,12 +2509,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -2577,7 +2523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2784,12 +2730,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -2804,7 +2744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,12 +2951,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -3031,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3238,12 +3172,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -3258,7 +3186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3465,12 +3393,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -3485,7 +3407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3692,12 +3614,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -3712,7 +3628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3919,12 +3835,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -3939,7 +3849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4146,12 +4056,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -4166,7 +4070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4373,12 +4277,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -4393,7 +4291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4600,12 +4498,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -4620,7 +4512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4827,12 +4719,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -4847,7 +4733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5054,12 +4940,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -5074,7 +4954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5281,12 +5161,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -5301,7 +5175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5508,12 +5382,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -5528,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5735,12 +5603,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -5755,7 +5617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5962,12 +5824,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -5982,7 +5838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6189,12 +6045,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -6209,7 +6059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6416,12 +6266,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -6436,7 +6280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6643,12 +6487,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -6663,7 +6501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6870,12 +6708,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -6890,7 +6722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7097,12 +6929,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -7117,7 +6943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7324,12 +7150,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -7344,7 +7164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7551,12 +7371,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -7571,7 +7385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7778,12 +7592,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -7798,7 +7606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8005,12 +7813,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -8025,7 +7827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8232,12 +8034,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -8252,7 +8048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8459,12 +8255,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -8479,7 +8269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8686,12 +8476,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -8706,7 +8490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8913,12 +8697,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -8933,7 +8711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9140,12 +8918,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -9160,7 +8932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9367,12 +9139,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -9387,7 +9153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9594,12 +9360,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -9614,7 +9374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9821,12 +9581,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -9841,7 +9595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10048,12 +9802,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -10068,7 +9816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10275,12 +10023,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -10295,7 +10037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10502,12 +10244,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -10522,7 +10258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10729,12 +10465,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -10749,7 +10479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10956,12 +10686,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -10976,7 +10700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11183,12 +10907,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -11203,7 +10921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11410,12 +11128,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -11430,7 +11142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11637,12 +11349,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -11657,7 +11363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11864,12 +11570,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -11884,7 +11584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12091,12 +11791,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -12111,7 +11805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12318,12 +12012,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -12338,7 +12026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12545,12 +12233,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -12565,7 +12247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12772,12 +12454,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -12792,7 +12468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12999,12 +12675,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -13019,7 +12689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13226,12 +12896,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -13246,7 +12910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13453,12 +13117,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -13473,7 +13131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13680,12 +13338,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -13700,7 +13352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13907,12 +13559,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -13927,7 +13573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14134,12 +13780,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -14154,7 +13794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14361,12 +14001,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -14381,7 +14015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14588,12 +14222,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -14608,7 +14236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14815,12 +14443,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -14835,7 +14457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15042,12 +14664,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -15062,7 +14678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15269,12 +14885,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -15289,7 +14899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15496,12 +15106,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -15516,7 +15120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15723,12 +15327,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -15743,7 +15341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15950,12 +15548,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -15970,7 +15562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16177,12 +15769,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -16197,7 +15783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16404,12 +15990,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -16424,7 +16004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16631,12 +16211,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -16651,7 +16225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16858,12 +16432,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -16878,7 +16446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17085,12 +16653,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -17105,7 +16667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17312,12 +16874,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -17332,7 +16888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17539,12 +17095,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -17559,7 +17109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17766,12 +17316,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -17786,7 +17330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17993,12 +17537,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -18013,7 +17551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18220,12 +17758,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -18240,7 +17772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18447,12 +17979,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -18467,7 +17993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18674,12 +18200,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -18694,7 +18214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18901,12 +18421,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -18921,7 +18435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19128,12 +18642,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -19148,7 +18656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19355,12 +18863,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -19375,7 +18877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19582,12 +19084,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -19602,7 +19098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19809,12 +19305,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -19829,7 +19319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20036,12 +19526,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -20056,7 +19540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20263,12 +19747,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -20283,7 +19761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20490,12 +19968,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -20510,7 +19982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20717,12 +20189,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -20737,7 +20203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20944,12 +20410,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -20964,7 +20424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21171,12 +20631,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -21191,7 +20645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21398,12 +20852,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -21418,7 +20866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21625,12 +21073,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -21645,7 +21087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21852,12 +21294,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -21872,7 +21308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22079,12 +21515,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -22099,7 +21529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22306,12 +21736,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -22326,7 +21750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22533,12 +21957,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -22553,7 +21971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22760,12 +22178,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -22780,7 +22192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22987,12 +22399,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -23007,7 +22413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23214,12 +22620,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -23234,7 +22634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23441,12 +22841,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -23461,7 +22855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23668,12 +23062,6 @@
     <row r="21">
       <c r="A21">
         <f>Average(B21:P21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
         <v/>
       </c>
     </row>
@@ -23688,7 +23076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23898,12 +23286,6 @@
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="A22">
-        <f>Average(B22:P22)</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
